--- a/Data/F022.FLAP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLAP.STO.Z.Z.CLP.D.xlsx
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -18462,7 +18462,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -19057,7 +19057,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -19278,7 +19278,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -20128,7 +20128,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -20485,7 +20485,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -20587,7 +20587,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -20723,7 +20723,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -21199,7 +21199,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -21318,7 +21318,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -21794,7 +21794,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -22746,7 +22746,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -23205,7 +23205,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
@@ -23222,7 +23222,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -23307,7 +23307,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -24055,7 +24055,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
@@ -24531,7 +24531,7 @@
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
@@ -24769,7 +24769,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -25007,7 +25007,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
@@ -25602,7 +25602,7 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
@@ -25942,7 +25942,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26078,7 +26078,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
@@ -26197,7 +26197,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
@@ -26282,7 +26282,7 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
@@ -26435,7 +26435,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
@@ -26656,7 +26656,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
@@ -27013,7 +27013,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
@@ -27030,7 +27030,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
@@ -27370,7 +27370,7 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
@@ -27506,7 +27506,7 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
@@ -27625,7 +27625,7 @@
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
@@ -28101,7 +28101,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
@@ -28203,7 +28203,7 @@
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
@@ -28322,7 +28322,7 @@
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
@@ -28441,7 +28441,7 @@
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
@@ -28560,7 +28560,7 @@
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
@@ -28798,7 +28798,7 @@
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
@@ -29036,7 +29036,7 @@
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
@@ -29155,7 +29155,7 @@
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr">
@@ -29172,7 +29172,7 @@
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1701" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1702" t="inlineStr">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1708" t="inlineStr">
@@ -29410,7 +29410,7 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1709" t="inlineStr">
@@ -29512,7 +29512,7 @@
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr">
@@ -29631,7 +29631,7 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1722" t="inlineStr">
@@ -29648,7 +29648,7 @@
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1723" t="inlineStr">
@@ -29750,7 +29750,7 @@
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
@@ -29852,7 +29852,7 @@
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
@@ -29988,7 +29988,7 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr">
@@ -30073,7 +30073,7 @@
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
@@ -30107,7 +30107,7 @@
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
@@ -30226,7 +30226,7 @@
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
@@ -30243,7 +30243,7 @@
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1758" t="inlineStr">
@@ -30345,7 +30345,7 @@
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1764" t="inlineStr">
@@ -30362,7 +30362,7 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
@@ -30464,7 +30464,7 @@
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr">
@@ -30481,7 +30481,7 @@
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1772" t="inlineStr">
@@ -30583,7 +30583,7 @@
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr">
@@ -30600,7 +30600,7 @@
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr">
@@ -30719,7 +30719,7 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr">
@@ -30838,7 +30838,7 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -31059,7 +31059,7 @@
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1806" t="inlineStr">
@@ -31076,7 +31076,7 @@
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1807" t="inlineStr">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1814" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1820" t="inlineStr">
@@ -31314,7 +31314,7 @@
       </c>
       <c r="B1821" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1821" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
@@ -31416,7 +31416,7 @@
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1827" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1828" t="inlineStr">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1834" t="inlineStr">
@@ -31552,7 +31552,7 @@
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr">
@@ -31654,7 +31654,7 @@
       </c>
       <c r="B1841" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1841" t="inlineStr">
@@ -31671,7 +31671,7 @@
       </c>
       <c r="B1842" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1842" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1849" t="inlineStr">
@@ -31875,7 +31875,7 @@
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr">
@@ -31909,7 +31909,7 @@
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr">
@@ -32130,7 +32130,7 @@
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr">
@@ -32147,7 +32147,7 @@
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr">
@@ -32249,7 +32249,7 @@
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr">
@@ -32266,7 +32266,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
@@ -32368,7 +32368,7 @@
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr">
@@ -32385,7 +32385,7 @@
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr">
@@ -32470,7 +32470,7 @@
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr">
@@ -32504,7 +32504,7 @@
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr">
@@ -32606,7 +32606,7 @@
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr">
@@ -32725,7 +32725,7 @@
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
@@ -32742,7 +32742,7 @@
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
@@ -32844,7 +32844,7 @@
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
@@ -32963,7 +32963,7 @@
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
@@ -32980,7 +32980,7 @@
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
@@ -33082,7 +33082,7 @@
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
@@ -33099,7 +33099,7 @@
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
@@ -33201,7 +33201,7 @@
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
@@ -33218,7 +33218,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -33320,7 +33320,7 @@
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
@@ -33456,7 +33456,7 @@
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
@@ -33558,7 +33558,7 @@
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
@@ -33575,7 +33575,7 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
@@ -33677,7 +33677,7 @@
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
@@ -33694,7 +33694,7 @@
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
@@ -33830,7 +33830,7 @@
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
@@ -33932,7 +33932,7 @@
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
@@ -34034,7 +34034,7 @@
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
@@ -34051,7 +34051,7 @@
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
@@ -34119,7 +34119,7 @@
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
@@ -34153,7 +34153,7 @@
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -34238,7 +34238,7 @@
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
@@ -34272,7 +34272,7 @@
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
@@ -34289,7 +34289,7 @@
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
@@ -34391,7 +34391,7 @@
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
@@ -34408,7 +34408,7 @@
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
@@ -34527,7 +34527,7 @@
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
@@ -34629,7 +34629,7 @@
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
@@ -34646,7 +34646,7 @@
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
@@ -34765,7 +34765,7 @@
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
@@ -34867,7 +34867,7 @@
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
@@ -34986,7 +34986,7 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
@@ -35003,7 +35003,7 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
@@ -35105,7 +35105,7 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -35241,7 +35241,7 @@
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
@@ -35343,7 +35343,7 @@
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
@@ -35360,7 +35360,7 @@
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
@@ -35462,7 +35462,7 @@
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
@@ -35479,7 +35479,7 @@
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
@@ -35598,7 +35598,7 @@
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
@@ -35700,7 +35700,7 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -35717,7 +35717,7 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
@@ -35819,7 +35819,7 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr">
@@ -35836,7 +35836,7 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
@@ -35938,7 +35938,7 @@
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
@@ -36057,7 +36057,7 @@
       </c>
       <c r="B2100" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2100" t="inlineStr">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr">
@@ -36312,7 +36312,7 @@
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>NeuN</t>
+          <t>NaN</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr">

--- a/Data/F022.FLAP.STO.Z.Z.CLP.D.xlsx
+++ b/Data/F022.FLAP.STO.Z.Z.CLP.D.xlsx
@@ -5576,7 +5576,7 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
@@ -5593,7 +5593,7 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
@@ -5610,7 +5610,7 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
@@ -5712,7 +5712,7 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
@@ -5729,7 +5729,7 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
@@ -5831,7 +5831,7 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
@@ -5950,7 +5950,7 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
@@ -5967,7 +5967,7 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
@@ -6069,7 +6069,7 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
@@ -6086,7 +6086,7 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
@@ -6188,7 +6188,7 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
@@ -6222,7 +6222,7 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
@@ -6307,7 +6307,7 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
@@ -6324,7 +6324,7 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
@@ -6426,7 +6426,7 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
@@ -6443,7 +6443,7 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
@@ -6528,7 +6528,7 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
@@ -6562,7 +6562,7 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
@@ -6664,7 +6664,7 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
@@ -6681,7 +6681,7 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
@@ -6800,7 +6800,7 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
@@ -6902,7 +6902,7 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
@@ -6919,7 +6919,7 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
@@ -7021,7 +7021,7 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
@@ -7038,7 +7038,7 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
@@ -7140,7 +7140,7 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
@@ -7157,7 +7157,7 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
@@ -7259,7 +7259,7 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
@@ -7276,7 +7276,7 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
@@ -7378,7 +7378,7 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
@@ -7395,7 +7395,7 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
@@ -7497,7 +7497,7 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
@@ -7599,7 +7599,7 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
@@ -7616,7 +7616,7 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
@@ -7633,7 +7633,7 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
@@ -7650,7 +7650,7 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
@@ -7735,7 +7735,7 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
@@ -7752,7 +7752,7 @@
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C435" t="inlineStr">
@@ -7854,7 +7854,7 @@
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C441" t="inlineStr">
@@ -7871,7 +7871,7 @@
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C442" t="inlineStr">
@@ -7973,7 +7973,7 @@
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C448" t="inlineStr">
@@ -7990,7 +7990,7 @@
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C449" t="inlineStr">
@@ -8007,7 +8007,7 @@
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C450" t="inlineStr">
@@ -8092,7 +8092,7 @@
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C455" t="inlineStr">
@@ -8109,7 +8109,7 @@
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C456" t="inlineStr">
@@ -8211,7 +8211,7 @@
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C462" t="inlineStr">
@@ -8228,7 +8228,7 @@
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C463" t="inlineStr">
@@ -8330,7 +8330,7 @@
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C469" t="inlineStr">
@@ -8347,7 +8347,7 @@
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C470" t="inlineStr">
@@ -8364,7 +8364,7 @@
       </c>
       <c r="B471" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C471" t="inlineStr">
@@ -8449,7 +8449,7 @@
       </c>
       <c r="B476" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C476" t="inlineStr">
@@ -8466,7 +8466,7 @@
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C477" t="inlineStr">
@@ -8568,7 +8568,7 @@
       </c>
       <c r="B483" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C483" t="inlineStr">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C484" t="inlineStr">
@@ -8687,7 +8687,7 @@
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C490" t="inlineStr">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C491" t="inlineStr">
@@ -8806,7 +8806,7 @@
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C497" t="inlineStr">
@@ -8823,7 +8823,7 @@
       </c>
       <c r="B498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C498" t="inlineStr">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C504" t="inlineStr">
@@ -8942,7 +8942,7 @@
       </c>
       <c r="B505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C505" t="inlineStr">
@@ -8993,7 +8993,7 @@
       </c>
       <c r="B508" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C508" t="inlineStr">
@@ -9044,7 +9044,7 @@
       </c>
       <c r="B511" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C511" t="inlineStr">
@@ -9061,7 +9061,7 @@
       </c>
       <c r="B512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C512" t="inlineStr">
@@ -9163,7 +9163,7 @@
       </c>
       <c r="B518" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C518" t="inlineStr">
@@ -9180,7 +9180,7 @@
       </c>
       <c r="B519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C519" t="inlineStr">
@@ -9282,7 +9282,7 @@
       </c>
       <c r="B525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C525" t="inlineStr">
@@ -9299,7 +9299,7 @@
       </c>
       <c r="B526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C526" t="inlineStr">
@@ -9384,7 +9384,7 @@
       </c>
       <c r="B531" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C531" t="inlineStr">
@@ -9401,7 +9401,7 @@
       </c>
       <c r="B532" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C532" t="inlineStr">
@@ -9418,7 +9418,7 @@
       </c>
       <c r="B533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C533" t="inlineStr">
@@ -9520,7 +9520,7 @@
       </c>
       <c r="B539" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C539" t="inlineStr">
@@ -9537,7 +9537,7 @@
       </c>
       <c r="B540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C540" t="inlineStr">
@@ -9639,7 +9639,7 @@
       </c>
       <c r="B546" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C546" t="inlineStr">
@@ -9656,7 +9656,7 @@
       </c>
       <c r="B547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C547" t="inlineStr">
@@ -9758,7 +9758,7 @@
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
@@ -9775,7 +9775,7 @@
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
@@ -9877,7 +9877,7 @@
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
@@ -9894,7 +9894,7 @@
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
@@ -9996,7 +9996,7 @@
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
@@ -10013,7 +10013,7 @@
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
@@ -10115,7 +10115,7 @@
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
@@ -10132,7 +10132,7 @@
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
@@ -10234,7 +10234,7 @@
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
@@ -10251,7 +10251,7 @@
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
@@ -10353,7 +10353,7 @@
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
@@ -10370,7 +10370,7 @@
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
@@ -10472,7 +10472,7 @@
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
@@ -10489,7 +10489,7 @@
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
@@ -10591,7 +10591,7 @@
       </c>
       <c r="B602" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C602" t="inlineStr">
@@ -10608,7 +10608,7 @@
       </c>
       <c r="B603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C603" t="inlineStr">
@@ -10710,7 +10710,7 @@
       </c>
       <c r="B609" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C609" t="inlineStr">
@@ -10727,7 +10727,7 @@
       </c>
       <c r="B610" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C610" t="inlineStr">
@@ -10829,7 +10829,7 @@
       </c>
       <c r="B616" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C616" t="inlineStr">
@@ -10846,7 +10846,7 @@
       </c>
       <c r="B617" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C617" t="inlineStr">
@@ -10948,7 +10948,7 @@
       </c>
       <c r="B623" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C623" t="inlineStr">
@@ -10965,7 +10965,7 @@
       </c>
       <c r="B624" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C624" t="inlineStr">
@@ -11067,7 +11067,7 @@
       </c>
       <c r="B630" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C630" t="inlineStr">
@@ -11084,7 +11084,7 @@
       </c>
       <c r="B631" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C631" t="inlineStr">
@@ -11186,7 +11186,7 @@
       </c>
       <c r="B637" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C637" t="inlineStr">
@@ -11203,7 +11203,7 @@
       </c>
       <c r="B638" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C638" t="inlineStr">
@@ -11288,7 +11288,7 @@
       </c>
       <c r="B643" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C643" t="inlineStr">
@@ -11305,7 +11305,7 @@
       </c>
       <c r="B644" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C644" t="inlineStr">
@@ -11322,7 +11322,7 @@
       </c>
       <c r="B645" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C645" t="inlineStr">
@@ -11424,7 +11424,7 @@
       </c>
       <c r="B651" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C651" t="inlineStr">
@@ -11441,7 +11441,7 @@
       </c>
       <c r="B652" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C652" t="inlineStr">
@@ -11543,7 +11543,7 @@
       </c>
       <c r="B658" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C658" t="inlineStr">
@@ -11560,7 +11560,7 @@
       </c>
       <c r="B659" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C659" t="inlineStr">
@@ -11662,7 +11662,7 @@
       </c>
       <c r="B665" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C665" t="inlineStr">
@@ -11679,7 +11679,7 @@
       </c>
       <c r="B666" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C666" t="inlineStr">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="B672" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C672" t="inlineStr">
@@ -11798,7 +11798,7 @@
       </c>
       <c r="B673" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C673" t="inlineStr">
@@ -11900,7 +11900,7 @@
       </c>
       <c r="B679" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C679" t="inlineStr">
@@ -11917,7 +11917,7 @@
       </c>
       <c r="B680" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C680" t="inlineStr">
@@ -12019,7 +12019,7 @@
       </c>
       <c r="B686" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C686" t="inlineStr">
@@ -12036,7 +12036,7 @@
       </c>
       <c r="B687" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C687" t="inlineStr">
@@ -12138,7 +12138,7 @@
       </c>
       <c r="B693" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C693" t="inlineStr">
@@ -12155,7 +12155,7 @@
       </c>
       <c r="B694" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C694" t="inlineStr">
@@ -12257,7 +12257,7 @@
       </c>
       <c r="B700" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C700" t="inlineStr">
@@ -12274,7 +12274,7 @@
       </c>
       <c r="B701" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C701" t="inlineStr">
@@ -12376,7 +12376,7 @@
       </c>
       <c r="B707" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C707" t="inlineStr">
@@ -12393,7 +12393,7 @@
       </c>
       <c r="B708" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C708" t="inlineStr">
@@ -12410,7 +12410,7 @@
       </c>
       <c r="B709" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C709" t="inlineStr">
@@ -12495,7 +12495,7 @@
       </c>
       <c r="B714" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C714" t="inlineStr">
@@ -12512,7 +12512,7 @@
       </c>
       <c r="B715" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C715" t="inlineStr">
@@ -12614,7 +12614,7 @@
       </c>
       <c r="B721" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C721" t="inlineStr">
@@ -12631,7 +12631,7 @@
       </c>
       <c r="B722" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C722" t="inlineStr">
@@ -12733,7 +12733,7 @@
       </c>
       <c r="B728" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C728" t="inlineStr">
@@ -12750,7 +12750,7 @@
       </c>
       <c r="B729" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C729" t="inlineStr">
@@ -12852,7 +12852,7 @@
       </c>
       <c r="B735" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C735" t="inlineStr">
@@ -12869,7 +12869,7 @@
       </c>
       <c r="B736" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C736" t="inlineStr">
@@ -12971,7 +12971,7 @@
       </c>
       <c r="B742" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C742" t="inlineStr">
@@ -12988,7 +12988,7 @@
       </c>
       <c r="B743" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C743" t="inlineStr">
@@ -13090,7 +13090,7 @@
       </c>
       <c r="B749" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C749" t="inlineStr">
@@ -13107,7 +13107,7 @@
       </c>
       <c r="B750" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C750" t="inlineStr">
@@ -13209,7 +13209,7 @@
       </c>
       <c r="B756" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C756" t="inlineStr">
@@ -13226,7 +13226,7 @@
       </c>
       <c r="B757" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C757" t="inlineStr">
@@ -13243,7 +13243,7 @@
       </c>
       <c r="B758" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C758" t="inlineStr">
@@ -13328,7 +13328,7 @@
       </c>
       <c r="B763" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C763" t="inlineStr">
@@ -13345,7 +13345,7 @@
       </c>
       <c r="B764" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C764" t="inlineStr">
@@ -13447,7 +13447,7 @@
       </c>
       <c r="B770" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C770" t="inlineStr">
@@ -13464,7 +13464,7 @@
       </c>
       <c r="B771" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C771" t="inlineStr">
@@ -13566,7 +13566,7 @@
       </c>
       <c r="B777" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C777" t="inlineStr">
@@ -13583,7 +13583,7 @@
       </c>
       <c r="B778" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C778" t="inlineStr">
@@ -13685,7 +13685,7 @@
       </c>
       <c r="B784" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C784" t="inlineStr">
@@ -13702,7 +13702,7 @@
       </c>
       <c r="B785" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C785" t="inlineStr">
@@ -13804,7 +13804,7 @@
       </c>
       <c r="B791" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C791" t="inlineStr">
@@ -13821,7 +13821,7 @@
       </c>
       <c r="B792" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C792" t="inlineStr">
@@ -13838,7 +13838,7 @@
       </c>
       <c r="B793" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C793" t="inlineStr">
@@ -13923,7 +13923,7 @@
       </c>
       <c r="B798" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C798" t="inlineStr">
@@ -13940,7 +13940,7 @@
       </c>
       <c r="B799" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C799" t="inlineStr">
@@ -14042,7 +14042,7 @@
       </c>
       <c r="B805" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C805" t="inlineStr">
@@ -14059,7 +14059,7 @@
       </c>
       <c r="B806" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C806" t="inlineStr">
@@ -14161,7 +14161,7 @@
       </c>
       <c r="B812" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C812" t="inlineStr">
@@ -14178,7 +14178,7 @@
       </c>
       <c r="B813" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C813" t="inlineStr">
@@ -14195,7 +14195,7 @@
       </c>
       <c r="B814" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C814" t="inlineStr">
@@ -14280,7 +14280,7 @@
       </c>
       <c r="B819" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C819" t="inlineStr">
@@ -14297,7 +14297,7 @@
       </c>
       <c r="B820" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C820" t="inlineStr">
@@ -14399,7 +14399,7 @@
       </c>
       <c r="B826" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C826" t="inlineStr">
@@ -14416,7 +14416,7 @@
       </c>
       <c r="B827" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C827" t="inlineStr">
@@ -14518,7 +14518,7 @@
       </c>
       <c r="B833" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C833" t="inlineStr">
@@ -14535,7 +14535,7 @@
       </c>
       <c r="B834" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C834" t="inlineStr">
@@ -14552,7 +14552,7 @@
       </c>
       <c r="B835" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C835" t="inlineStr">
@@ -14569,7 +14569,7 @@
       </c>
       <c r="B836" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C836" t="inlineStr">
@@ -14637,7 +14637,7 @@
       </c>
       <c r="B840" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C840" t="inlineStr">
@@ -14654,7 +14654,7 @@
       </c>
       <c r="B841" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C841" t="inlineStr">
@@ -14756,7 +14756,7 @@
       </c>
       <c r="B847" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C847" t="inlineStr">
@@ -14773,7 +14773,7 @@
       </c>
       <c r="B848" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C848" t="inlineStr">
@@ -14875,7 +14875,7 @@
       </c>
       <c r="B854" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C854" t="inlineStr">
@@ -14892,7 +14892,7 @@
       </c>
       <c r="B855" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C855" t="inlineStr">
@@ -14994,7 +14994,7 @@
       </c>
       <c r="B861" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C861" t="inlineStr">
@@ -15011,7 +15011,7 @@
       </c>
       <c r="B862" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C862" t="inlineStr">
@@ -15113,7 +15113,7 @@
       </c>
       <c r="B868" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C868" t="inlineStr">
@@ -15130,7 +15130,7 @@
       </c>
       <c r="B869" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C869" t="inlineStr">
@@ -15198,7 +15198,7 @@
       </c>
       <c r="B873" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C873" t="inlineStr">
@@ -15232,7 +15232,7 @@
       </c>
       <c r="B875" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C875" t="inlineStr">
@@ -15249,7 +15249,7 @@
       </c>
       <c r="B876" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C876" t="inlineStr">
@@ -15351,7 +15351,7 @@
       </c>
       <c r="B882" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C882" t="inlineStr">
@@ -15368,7 +15368,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C883" t="inlineStr">
@@ -15470,7 +15470,7 @@
       </c>
       <c r="B889" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C889" t="inlineStr">
@@ -15487,7 +15487,7 @@
       </c>
       <c r="B890" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C890" t="inlineStr">
@@ -15589,7 +15589,7 @@
       </c>
       <c r="B896" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C896" t="inlineStr">
@@ -15606,7 +15606,7 @@
       </c>
       <c r="B897" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C897" t="inlineStr">
@@ -15708,7 +15708,7 @@
       </c>
       <c r="B903" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C903" t="inlineStr">
@@ -15725,7 +15725,7 @@
       </c>
       <c r="B904" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C904" t="inlineStr">
@@ -15827,7 +15827,7 @@
       </c>
       <c r="B910" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C910" t="inlineStr">
@@ -15844,7 +15844,7 @@
       </c>
       <c r="B911" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C911" t="inlineStr">
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B917" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C917" t="inlineStr">
@@ -15963,7 +15963,7 @@
       </c>
       <c r="B918" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C918" t="inlineStr">
@@ -16065,7 +16065,7 @@
       </c>
       <c r="B924" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C924" t="inlineStr">
@@ -16082,7 +16082,7 @@
       </c>
       <c r="B925" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C925" t="inlineStr">
@@ -16184,7 +16184,7 @@
       </c>
       <c r="B931" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C931" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="B932" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C932" t="inlineStr">
@@ -16303,7 +16303,7 @@
       </c>
       <c r="B938" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C938" t="inlineStr">
@@ -16320,7 +16320,7 @@
       </c>
       <c r="B939" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C939" t="inlineStr">
@@ -16422,7 +16422,7 @@
       </c>
       <c r="B945" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C945" t="inlineStr">
@@ -16439,7 +16439,7 @@
       </c>
       <c r="B946" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C946" t="inlineStr">
@@ -16541,7 +16541,7 @@
       </c>
       <c r="B952" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C952" t="inlineStr">
@@ -16558,7 +16558,7 @@
       </c>
       <c r="B953" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C953" t="inlineStr">
@@ -16660,7 +16660,7 @@
       </c>
       <c r="B959" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C959" t="inlineStr">
@@ -16677,7 +16677,7 @@
       </c>
       <c r="B960" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C960" t="inlineStr">
@@ -16779,7 +16779,7 @@
       </c>
       <c r="B966" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C966" t="inlineStr">
@@ -16796,7 +16796,7 @@
       </c>
       <c r="B967" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C967" t="inlineStr">
@@ -16898,7 +16898,7 @@
       </c>
       <c r="B973" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C973" t="inlineStr">
@@ -16915,7 +16915,7 @@
       </c>
       <c r="B974" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C974" t="inlineStr">
@@ -17017,7 +17017,7 @@
       </c>
       <c r="B980" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C980" t="inlineStr">
@@ -17034,7 +17034,7 @@
       </c>
       <c r="B981" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C981" t="inlineStr">
@@ -17136,7 +17136,7 @@
       </c>
       <c r="B987" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C987" t="inlineStr">
@@ -17153,7 +17153,7 @@
       </c>
       <c r="B988" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C988" t="inlineStr">
@@ -17238,7 +17238,7 @@
       </c>
       <c r="B993" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C993" t="inlineStr">
@@ -17255,7 +17255,7 @@
       </c>
       <c r="B994" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C994" t="inlineStr">
@@ -17272,7 +17272,7 @@
       </c>
       <c r="B995" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C995" t="inlineStr">
@@ -17374,7 +17374,7 @@
       </c>
       <c r="B1001" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1001" t="inlineStr">
@@ -17391,7 +17391,7 @@
       </c>
       <c r="B1002" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1002" t="inlineStr">
@@ -17493,7 +17493,7 @@
       </c>
       <c r="B1008" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1008" t="inlineStr">
@@ -17510,7 +17510,7 @@
       </c>
       <c r="B1009" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1009" t="inlineStr">
@@ -17612,7 +17612,7 @@
       </c>
       <c r="B1015" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1015" t="inlineStr">
@@ -17629,7 +17629,7 @@
       </c>
       <c r="B1016" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1016" t="inlineStr">
@@ -17663,7 +17663,7 @@
       </c>
       <c r="B1018" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1018" t="inlineStr">
@@ -17731,7 +17731,7 @@
       </c>
       <c r="B1022" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1022" t="inlineStr">
@@ -17748,7 +17748,7 @@
       </c>
       <c r="B1023" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1023" t="inlineStr">
@@ -17850,7 +17850,7 @@
       </c>
       <c r="B1029" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1029" t="inlineStr">
@@ -17867,7 +17867,7 @@
       </c>
       <c r="B1030" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1030" t="inlineStr">
@@ -17969,7 +17969,7 @@
       </c>
       <c r="B1036" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1036" t="inlineStr">
@@ -17986,7 +17986,7 @@
       </c>
       <c r="B1037" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1037" t="inlineStr">
@@ -18003,7 +18003,7 @@
       </c>
       <c r="B1038" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1038" t="inlineStr">
@@ -18088,7 +18088,7 @@
       </c>
       <c r="B1043" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1043" t="inlineStr">
@@ -18105,7 +18105,7 @@
       </c>
       <c r="B1044" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1044" t="inlineStr">
@@ -18207,7 +18207,7 @@
       </c>
       <c r="B1050" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1050" t="inlineStr">
@@ -18224,7 +18224,7 @@
       </c>
       <c r="B1051" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1051" t="inlineStr">
@@ -18326,7 +18326,7 @@
       </c>
       <c r="B1057" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1057" t="inlineStr">
@@ -18343,7 +18343,7 @@
       </c>
       <c r="B1058" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1058" t="inlineStr">
@@ -18445,7 +18445,7 @@
       </c>
       <c r="B1064" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1064" t="inlineStr">
@@ -18462,7 +18462,7 @@
       </c>
       <c r="B1065" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1065" t="inlineStr">
@@ -18564,7 +18564,7 @@
       </c>
       <c r="B1071" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1071" t="inlineStr">
@@ -18581,7 +18581,7 @@
       </c>
       <c r="B1072" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1072" t="inlineStr">
@@ -18683,7 +18683,7 @@
       </c>
       <c r="B1078" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1078" t="inlineStr">
@@ -18700,7 +18700,7 @@
       </c>
       <c r="B1079" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1079" t="inlineStr">
@@ -18717,7 +18717,7 @@
       </c>
       <c r="B1080" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1080" t="inlineStr">
@@ -18802,7 +18802,7 @@
       </c>
       <c r="B1085" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1085" t="inlineStr">
@@ -18819,7 +18819,7 @@
       </c>
       <c r="B1086" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1086" t="inlineStr">
@@ -18921,7 +18921,7 @@
       </c>
       <c r="B1092" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1092" t="inlineStr">
@@ -18938,7 +18938,7 @@
       </c>
       <c r="B1093" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1093" t="inlineStr">
@@ -18955,7 +18955,7 @@
       </c>
       <c r="B1094" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1094" t="inlineStr">
@@ -19040,7 +19040,7 @@
       </c>
       <c r="B1099" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1099" t="inlineStr">
@@ -19057,7 +19057,7 @@
       </c>
       <c r="B1100" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1100" t="inlineStr">
@@ -19159,7 +19159,7 @@
       </c>
       <c r="B1106" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1106" t="inlineStr">
@@ -19176,7 +19176,7 @@
       </c>
       <c r="B1107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1107" t="inlineStr">
@@ -19278,7 +19278,7 @@
       </c>
       <c r="B1113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1113" t="inlineStr">
@@ -19295,7 +19295,7 @@
       </c>
       <c r="B1114" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1114" t="inlineStr">
@@ -19397,7 +19397,7 @@
       </c>
       <c r="B1120" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1120" t="inlineStr">
@@ -19414,7 +19414,7 @@
       </c>
       <c r="B1121" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1121" t="inlineStr">
@@ -19465,7 +19465,7 @@
       </c>
       <c r="B1124" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1124" t="inlineStr">
@@ -19516,7 +19516,7 @@
       </c>
       <c r="B1127" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1127" t="inlineStr">
@@ -19533,7 +19533,7 @@
       </c>
       <c r="B1128" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1128" t="inlineStr">
@@ -19635,7 +19635,7 @@
       </c>
       <c r="B1134" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1134" t="inlineStr">
@@ -19652,7 +19652,7 @@
       </c>
       <c r="B1135" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1135" t="inlineStr">
@@ -19754,7 +19754,7 @@
       </c>
       <c r="B1141" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1141" t="inlineStr">
@@ -19771,7 +19771,7 @@
       </c>
       <c r="B1142" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1142" t="inlineStr">
@@ -19873,7 +19873,7 @@
       </c>
       <c r="B1148" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1148" t="inlineStr">
@@ -19890,7 +19890,7 @@
       </c>
       <c r="B1149" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1149" t="inlineStr">
@@ -19992,7 +19992,7 @@
       </c>
       <c r="B1155" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1155" t="inlineStr">
@@ -20009,7 +20009,7 @@
       </c>
       <c r="B1156" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1156" t="inlineStr">
@@ -20026,7 +20026,7 @@
       </c>
       <c r="B1157" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1157" t="inlineStr">
@@ -20043,7 +20043,7 @@
       </c>
       <c r="B1158" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1158" t="inlineStr">
@@ -20060,7 +20060,7 @@
       </c>
       <c r="B1159" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1159" t="inlineStr">
@@ -20111,7 +20111,7 @@
       </c>
       <c r="B1162" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1162" t="inlineStr">
@@ -20128,7 +20128,7 @@
       </c>
       <c r="B1163" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1163" t="inlineStr">
@@ -20230,7 +20230,7 @@
       </c>
       <c r="B1169" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1169" t="inlineStr">
@@ -20247,7 +20247,7 @@
       </c>
       <c r="B1170" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1170" t="inlineStr">
@@ -20349,7 +20349,7 @@
       </c>
       <c r="B1176" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1176" t="inlineStr">
@@ -20366,7 +20366,7 @@
       </c>
       <c r="B1177" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1177" t="inlineStr">
@@ -20468,7 +20468,7 @@
       </c>
       <c r="B1183" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1183" t="inlineStr">
@@ -20485,7 +20485,7 @@
       </c>
       <c r="B1184" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1184" t="inlineStr">
@@ -20502,7 +20502,7 @@
       </c>
       <c r="B1185" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1185" t="inlineStr">
@@ -20587,7 +20587,7 @@
       </c>
       <c r="B1190" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1190" t="inlineStr">
@@ -20604,7 +20604,7 @@
       </c>
       <c r="B1191" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1191" t="inlineStr">
@@ -20706,7 +20706,7 @@
       </c>
       <c r="B1197" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1197" t="inlineStr">
@@ -20723,7 +20723,7 @@
       </c>
       <c r="B1198" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1198" t="inlineStr">
@@ -20791,7 +20791,7 @@
       </c>
       <c r="B1202" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1202" t="inlineStr">
@@ -20808,7 +20808,7 @@
       </c>
       <c r="B1203" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1203" t="inlineStr">
@@ -20825,7 +20825,7 @@
       </c>
       <c r="B1204" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1204" t="inlineStr">
@@ -20842,7 +20842,7 @@
       </c>
       <c r="B1205" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1205" t="inlineStr">
@@ -20944,7 +20944,7 @@
       </c>
       <c r="B1211" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1211" t="inlineStr">
@@ -20961,7 +20961,7 @@
       </c>
       <c r="B1212" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1212" t="inlineStr">
@@ -21063,7 +21063,7 @@
       </c>
       <c r="B1218" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1218" t="inlineStr">
@@ -21080,7 +21080,7 @@
       </c>
       <c r="B1219" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1219" t="inlineStr">
@@ -21182,7 +21182,7 @@
       </c>
       <c r="B1225" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1225" t="inlineStr">
@@ -21199,7 +21199,7 @@
       </c>
       <c r="B1226" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1226" t="inlineStr">
@@ -21301,7 +21301,7 @@
       </c>
       <c r="B1232" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1232" t="inlineStr">
@@ -21318,7 +21318,7 @@
       </c>
       <c r="B1233" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1233" t="inlineStr">
@@ -21420,7 +21420,7 @@
       </c>
       <c r="B1239" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1239" t="inlineStr">
@@ -21437,7 +21437,7 @@
       </c>
       <c r="B1240" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1240" t="inlineStr">
@@ -21539,7 +21539,7 @@
       </c>
       <c r="B1246" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1246" t="inlineStr">
@@ -21556,7 +21556,7 @@
       </c>
       <c r="B1247" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1247" t="inlineStr">
@@ -21658,7 +21658,7 @@
       </c>
       <c r="B1253" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1253" t="inlineStr">
@@ -21675,7 +21675,7 @@
       </c>
       <c r="B1254" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1254" t="inlineStr">
@@ -21709,7 +21709,7 @@
       </c>
       <c r="B1256" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1256" t="inlineStr">
@@ -21777,7 +21777,7 @@
       </c>
       <c r="B1260" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1260" t="inlineStr">
@@ -21794,7 +21794,7 @@
       </c>
       <c r="B1261" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1261" t="inlineStr">
@@ -21811,7 +21811,7 @@
       </c>
       <c r="B1262" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1262" t="inlineStr">
@@ -21828,7 +21828,7 @@
       </c>
       <c r="B1263" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1263" t="inlineStr">
@@ -21896,7 +21896,7 @@
       </c>
       <c r="B1267" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1267" t="inlineStr">
@@ -21913,7 +21913,7 @@
       </c>
       <c r="B1268" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1268" t="inlineStr">
@@ -22015,7 +22015,7 @@
       </c>
       <c r="B1274" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1274" t="inlineStr">
@@ -22032,7 +22032,7 @@
       </c>
       <c r="B1275" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1275" t="inlineStr">
@@ -22134,7 +22134,7 @@
       </c>
       <c r="B1281" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1281" t="inlineStr">
@@ -22151,7 +22151,7 @@
       </c>
       <c r="B1282" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1282" t="inlineStr">
@@ -22253,7 +22253,7 @@
       </c>
       <c r="B1288" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1288" t="inlineStr">
@@ -22270,7 +22270,7 @@
       </c>
       <c r="B1289" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1289" t="inlineStr">
@@ -22372,7 +22372,7 @@
       </c>
       <c r="B1295" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1295" t="inlineStr">
@@ -22389,7 +22389,7 @@
       </c>
       <c r="B1296" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1296" t="inlineStr">
@@ -22491,7 +22491,7 @@
       </c>
       <c r="B1302" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1302" t="inlineStr">
@@ -22508,7 +22508,7 @@
       </c>
       <c r="B1303" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1303" t="inlineStr">
@@ -22610,7 +22610,7 @@
       </c>
       <c r="B1309" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1309" t="inlineStr">
@@ -22627,7 +22627,7 @@
       </c>
       <c r="B1310" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1310" t="inlineStr">
@@ -22729,7 +22729,7 @@
       </c>
       <c r="B1316" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1316" t="inlineStr">
@@ -22746,7 +22746,7 @@
       </c>
       <c r="B1317" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1317" t="inlineStr">
@@ -22848,7 +22848,7 @@
       </c>
       <c r="B1323" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1323" t="inlineStr">
@@ -22865,7 +22865,7 @@
       </c>
       <c r="B1324" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1324" t="inlineStr">
@@ -22967,7 +22967,7 @@
       </c>
       <c r="B1330" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1330" t="inlineStr">
@@ -22984,7 +22984,7 @@
       </c>
       <c r="B1331" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1331" t="inlineStr">
@@ -23086,7 +23086,7 @@
       </c>
       <c r="B1337" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1337" t="inlineStr">
@@ -23103,7 +23103,7 @@
       </c>
       <c r="B1338" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1338" t="inlineStr">
@@ -23205,7 +23205,7 @@
       </c>
       <c r="B1344" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1344" t="inlineStr">
@@ -23222,7 +23222,7 @@
       </c>
       <c r="B1345" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1345" t="inlineStr">
@@ -23307,7 +23307,7 @@
       </c>
       <c r="B1350" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1350" t="inlineStr">
@@ -23324,7 +23324,7 @@
       </c>
       <c r="B1351" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1351" t="inlineStr">
@@ -23341,7 +23341,7 @@
       </c>
       <c r="B1352" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1352" t="inlineStr">
@@ -23443,7 +23443,7 @@
       </c>
       <c r="B1358" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1358" t="inlineStr">
@@ -23460,7 +23460,7 @@
       </c>
       <c r="B1359" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1359" t="inlineStr">
@@ -23562,7 +23562,7 @@
       </c>
       <c r="B1365" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1365" t="inlineStr">
@@ -23579,7 +23579,7 @@
       </c>
       <c r="B1366" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1366" t="inlineStr">
@@ -23681,7 +23681,7 @@
       </c>
       <c r="B1372" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1372" t="inlineStr">
@@ -23698,7 +23698,7 @@
       </c>
       <c r="B1373" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1373" t="inlineStr">
@@ -23800,7 +23800,7 @@
       </c>
       <c r="B1379" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1379" t="inlineStr">
@@ -23817,7 +23817,7 @@
       </c>
       <c r="B1380" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1380" t="inlineStr">
@@ -23868,7 +23868,7 @@
       </c>
       <c r="B1383" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1383" t="inlineStr">
@@ -23919,7 +23919,7 @@
       </c>
       <c r="B1386" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1386" t="inlineStr">
@@ -23936,7 +23936,7 @@
       </c>
       <c r="B1387" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1387" t="inlineStr">
@@ -24038,7 +24038,7 @@
       </c>
       <c r="B1393" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1393" t="inlineStr">
@@ -24055,7 +24055,7 @@
       </c>
       <c r="B1394" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1394" t="inlineStr">
@@ -24157,7 +24157,7 @@
       </c>
       <c r="B1400" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1400" t="inlineStr">
@@ -24174,7 +24174,7 @@
       </c>
       <c r="B1401" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1401" t="inlineStr">
@@ -24208,7 +24208,7 @@
       </c>
       <c r="B1403" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1403" t="inlineStr">
@@ -24276,7 +24276,7 @@
       </c>
       <c r="B1407" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1407" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="B1408" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1408" t="inlineStr">
@@ -24395,7 +24395,7 @@
       </c>
       <c r="B1414" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1414" t="inlineStr">
@@ -24412,7 +24412,7 @@
       </c>
       <c r="B1415" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1415" t="inlineStr">
@@ -24514,7 +24514,7 @@
       </c>
       <c r="B1421" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1421" t="inlineStr">
@@ -24531,7 +24531,7 @@
       </c>
       <c r="B1422" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1422" t="inlineStr">
@@ -24633,7 +24633,7 @@
       </c>
       <c r="B1428" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1428" t="inlineStr">
@@ -24650,7 +24650,7 @@
       </c>
       <c r="B1429" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1429" t="inlineStr">
@@ -24752,7 +24752,7 @@
       </c>
       <c r="B1435" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1435" t="inlineStr">
@@ -24769,7 +24769,7 @@
       </c>
       <c r="B1436" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1436" t="inlineStr">
@@ -24871,7 +24871,7 @@
       </c>
       <c r="B1442" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1442" t="inlineStr">
@@ -24888,7 +24888,7 @@
       </c>
       <c r="B1443" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1443" t="inlineStr">
@@ -24990,7 +24990,7 @@
       </c>
       <c r="B1449" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1449" t="inlineStr">
@@ -25007,7 +25007,7 @@
       </c>
       <c r="B1450" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1450" t="inlineStr">
@@ -25109,7 +25109,7 @@
       </c>
       <c r="B1456" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1456" t="inlineStr">
@@ -25126,7 +25126,7 @@
       </c>
       <c r="B1457" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1457" t="inlineStr">
@@ -25160,7 +25160,7 @@
       </c>
       <c r="B1459" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1459" t="inlineStr">
@@ -25228,7 +25228,7 @@
       </c>
       <c r="B1463" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1463" t="inlineStr">
@@ -25245,7 +25245,7 @@
       </c>
       <c r="B1464" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1464" t="inlineStr">
@@ -25347,7 +25347,7 @@
       </c>
       <c r="B1470" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1470" t="inlineStr">
@@ -25364,7 +25364,7 @@
       </c>
       <c r="B1471" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1471" t="inlineStr">
@@ -25466,7 +25466,7 @@
       </c>
       <c r="B1477" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1477" t="inlineStr">
@@ -25483,7 +25483,7 @@
       </c>
       <c r="B1478" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1478" t="inlineStr">
@@ -25585,7 +25585,7 @@
       </c>
       <c r="B1484" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1484" t="inlineStr">
@@ -25602,7 +25602,7 @@
       </c>
       <c r="B1485" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1485" t="inlineStr">
@@ -25670,7 +25670,7 @@
       </c>
       <c r="B1489" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1489" t="inlineStr">
@@ -25704,7 +25704,7 @@
       </c>
       <c r="B1491" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1491" t="inlineStr">
@@ -25721,7 +25721,7 @@
       </c>
       <c r="B1492" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1492" t="inlineStr">
@@ -25823,7 +25823,7 @@
       </c>
       <c r="B1498" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1498" t="inlineStr">
@@ -25840,7 +25840,7 @@
       </c>
       <c r="B1499" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1499" t="inlineStr">
@@ -25942,7 +25942,7 @@
       </c>
       <c r="B1505" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1505" t="inlineStr">
@@ -25959,7 +25959,7 @@
       </c>
       <c r="B1506" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1506" t="inlineStr">
@@ -26061,7 +26061,7 @@
       </c>
       <c r="B1512" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1512" t="inlineStr">
@@ -26078,7 +26078,7 @@
       </c>
       <c r="B1513" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1513" t="inlineStr">
@@ -26180,7 +26180,7 @@
       </c>
       <c r="B1519" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1519" t="inlineStr">
@@ -26197,7 +26197,7 @@
       </c>
       <c r="B1520" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1520" t="inlineStr">
@@ -26248,7 +26248,7 @@
       </c>
       <c r="B1523" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1523" t="inlineStr">
@@ -26265,7 +26265,7 @@
       </c>
       <c r="B1524" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1524" t="inlineStr">
@@ -26282,7 +26282,7 @@
       </c>
       <c r="B1525" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1525" t="inlineStr">
@@ -26299,7 +26299,7 @@
       </c>
       <c r="B1526" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1526" t="inlineStr">
@@ -26316,7 +26316,7 @@
       </c>
       <c r="B1527" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1527" t="inlineStr">
@@ -26418,7 +26418,7 @@
       </c>
       <c r="B1533" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1533" t="inlineStr">
@@ -26435,7 +26435,7 @@
       </c>
       <c r="B1534" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1534" t="inlineStr">
@@ -26537,7 +26537,7 @@
       </c>
       <c r="B1540" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1540" t="inlineStr">
@@ -26554,7 +26554,7 @@
       </c>
       <c r="B1541" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1541" t="inlineStr">
@@ -26656,7 +26656,7 @@
       </c>
       <c r="B1547" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1547" t="inlineStr">
@@ -26673,7 +26673,7 @@
       </c>
       <c r="B1548" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1548" t="inlineStr">
@@ -26775,7 +26775,7 @@
       </c>
       <c r="B1554" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1554" t="inlineStr">
@@ -26792,7 +26792,7 @@
       </c>
       <c r="B1555" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1555" t="inlineStr">
@@ -26894,7 +26894,7 @@
       </c>
       <c r="B1561" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1561" t="inlineStr">
@@ -26911,7 +26911,7 @@
       </c>
       <c r="B1562" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1562" t="inlineStr">
@@ -26979,7 +26979,7 @@
       </c>
       <c r="B1566" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1566" t="inlineStr">
@@ -26996,7 +26996,7 @@
       </c>
       <c r="B1567" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1567" t="inlineStr">
@@ -27013,7 +27013,7 @@
       </c>
       <c r="B1568" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1568" t="inlineStr">
@@ -27030,7 +27030,7 @@
       </c>
       <c r="B1569" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1569" t="inlineStr">
@@ -27132,7 +27132,7 @@
       </c>
       <c r="B1575" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1575" t="inlineStr">
@@ -27149,7 +27149,7 @@
       </c>
       <c r="B1576" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1576" t="inlineStr">
@@ -27251,7 +27251,7 @@
       </c>
       <c r="B1582" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1582" t="inlineStr">
@@ -27268,7 +27268,7 @@
       </c>
       <c r="B1583" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1583" t="inlineStr">
@@ -27370,7 +27370,7 @@
       </c>
       <c r="B1589" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1589" t="inlineStr">
@@ -27387,7 +27387,7 @@
       </c>
       <c r="B1590" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1590" t="inlineStr">
@@ -27489,7 +27489,7 @@
       </c>
       <c r="B1596" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1596" t="inlineStr">
@@ -27506,7 +27506,7 @@
       </c>
       <c r="B1597" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1597" t="inlineStr">
@@ -27608,7 +27608,7 @@
       </c>
       <c r="B1603" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1603" t="inlineStr">
@@ -27625,7 +27625,7 @@
       </c>
       <c r="B1604" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1604" t="inlineStr">
@@ -27727,7 +27727,7 @@
       </c>
       <c r="B1610" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1610" t="inlineStr">
@@ -27744,7 +27744,7 @@
       </c>
       <c r="B1611" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1611" t="inlineStr">
@@ -27846,7 +27846,7 @@
       </c>
       <c r="B1617" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1617" t="inlineStr">
@@ -27863,7 +27863,7 @@
       </c>
       <c r="B1618" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1618" t="inlineStr">
@@ -27914,7 +27914,7 @@
       </c>
       <c r="B1621" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1621" t="inlineStr">
@@ -27965,7 +27965,7 @@
       </c>
       <c r="B1624" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1624" t="inlineStr">
@@ -27982,7 +27982,7 @@
       </c>
       <c r="B1625" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1625" t="inlineStr">
@@ -28016,7 +28016,7 @@
       </c>
       <c r="B1627" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1627" t="inlineStr">
@@ -28033,7 +28033,7 @@
       </c>
       <c r="B1628" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1628" t="inlineStr">
@@ -28084,7 +28084,7 @@
       </c>
       <c r="B1631" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1631" t="inlineStr">
@@ -28101,7 +28101,7 @@
       </c>
       <c r="B1632" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1632" t="inlineStr">
@@ -28203,7 +28203,7 @@
       </c>
       <c r="B1638" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1638" t="inlineStr">
@@ -28220,7 +28220,7 @@
       </c>
       <c r="B1639" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1639" t="inlineStr">
@@ -28322,7 +28322,7 @@
       </c>
       <c r="B1645" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1645" t="inlineStr">
@@ -28339,7 +28339,7 @@
       </c>
       <c r="B1646" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1646" t="inlineStr">
@@ -28441,7 +28441,7 @@
       </c>
       <c r="B1652" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1652" t="inlineStr">
@@ -28458,7 +28458,7 @@
       </c>
       <c r="B1653" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1653" t="inlineStr">
@@ -28560,7 +28560,7 @@
       </c>
       <c r="B1659" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1659" t="inlineStr">
@@ -28577,7 +28577,7 @@
       </c>
       <c r="B1660" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1660" t="inlineStr">
@@ -28679,7 +28679,7 @@
       </c>
       <c r="B1666" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1666" t="inlineStr">
@@ -28696,7 +28696,7 @@
       </c>
       <c r="B1667" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1667" t="inlineStr">
@@ -28798,7 +28798,7 @@
       </c>
       <c r="B1673" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1673" t="inlineStr">
@@ -28815,7 +28815,7 @@
       </c>
       <c r="B1674" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1674" t="inlineStr">
@@ -28917,7 +28917,7 @@
       </c>
       <c r="B1680" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1680" t="inlineStr">
@@ -28934,7 +28934,7 @@
       </c>
       <c r="B1681" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1681" t="inlineStr">
@@ -29036,7 +29036,7 @@
       </c>
       <c r="B1687" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1687" t="inlineStr">
@@ -29053,7 +29053,7 @@
       </c>
       <c r="B1688" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1688" t="inlineStr">
@@ -29155,7 +29155,7 @@
       </c>
       <c r="B1694" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1694" t="inlineStr">
@@ -29172,7 +29172,7 @@
       </c>
       <c r="B1695" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1695" t="inlineStr">
@@ -29274,7 +29274,7 @@
       </c>
       <c r="B1701" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1701" t="inlineStr">
@@ -29291,7 +29291,7 @@
       </c>
       <c r="B1702" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1702" t="inlineStr">
@@ -29393,7 +29393,7 @@
       </c>
       <c r="B1708" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1708" t="inlineStr">
@@ -29410,7 +29410,7 @@
       </c>
       <c r="B1709" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1709" t="inlineStr">
@@ -29512,7 +29512,7 @@
       </c>
       <c r="B1715" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1715" t="inlineStr">
@@ -29529,7 +29529,7 @@
       </c>
       <c r="B1716" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1716" t="inlineStr">
@@ -29631,7 +29631,7 @@
       </c>
       <c r="B1722" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1722" t="inlineStr">
@@ -29648,7 +29648,7 @@
       </c>
       <c r="B1723" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1723" t="inlineStr">
@@ -29750,7 +29750,7 @@
       </c>
       <c r="B1729" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1729" t="inlineStr">
@@ -29767,7 +29767,7 @@
       </c>
       <c r="B1730" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1730" t="inlineStr">
@@ -29852,7 +29852,7 @@
       </c>
       <c r="B1735" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1735" t="inlineStr">
@@ -29869,7 +29869,7 @@
       </c>
       <c r="B1736" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1736" t="inlineStr">
@@ -29886,7 +29886,7 @@
       </c>
       <c r="B1737" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1737" t="inlineStr">
@@ -29988,7 +29988,7 @@
       </c>
       <c r="B1743" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1743" t="inlineStr">
@@ -30005,7 +30005,7 @@
       </c>
       <c r="B1744" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1744" t="inlineStr">
@@ -30073,7 +30073,7 @@
       </c>
       <c r="B1748" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1748" t="inlineStr">
@@ -30107,7 +30107,7 @@
       </c>
       <c r="B1750" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1750" t="inlineStr">
@@ -30124,7 +30124,7 @@
       </c>
       <c r="B1751" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1751" t="inlineStr">
@@ -30226,7 +30226,7 @@
       </c>
       <c r="B1757" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1757" t="inlineStr">
@@ -30243,7 +30243,7 @@
       </c>
       <c r="B1758" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1758" t="inlineStr">
@@ -30345,7 +30345,7 @@
       </c>
       <c r="B1764" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1764" t="inlineStr">
@@ -30362,7 +30362,7 @@
       </c>
       <c r="B1765" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1765" t="inlineStr">
@@ -30413,7 +30413,7 @@
       </c>
       <c r="B1768" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1768" t="inlineStr">
@@ -30464,7 +30464,7 @@
       </c>
       <c r="B1771" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1771" t="inlineStr">
@@ -30481,7 +30481,7 @@
       </c>
       <c r="B1772" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1772" t="inlineStr">
@@ -30583,7 +30583,7 @@
       </c>
       <c r="B1778" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1778" t="inlineStr">
@@ -30600,7 +30600,7 @@
       </c>
       <c r="B1779" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1779" t="inlineStr">
@@ -30702,7 +30702,7 @@
       </c>
       <c r="B1785" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1785" t="inlineStr">
@@ -30719,7 +30719,7 @@
       </c>
       <c r="B1786" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1786" t="inlineStr">
@@ -30821,7 +30821,7 @@
       </c>
       <c r="B1792" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1792" t="inlineStr">
@@ -30838,7 +30838,7 @@
       </c>
       <c r="B1793" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1793" t="inlineStr">
@@ -30940,7 +30940,7 @@
       </c>
       <c r="B1799" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1799" t="inlineStr">
@@ -30957,7 +30957,7 @@
       </c>
       <c r="B1800" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1800" t="inlineStr">
@@ -31059,7 +31059,7 @@
       </c>
       <c r="B1806" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1806" t="inlineStr">
@@ -31076,7 +31076,7 @@
       </c>
       <c r="B1807" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1807" t="inlineStr">
@@ -31178,7 +31178,7 @@
       </c>
       <c r="B1813" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1813" t="inlineStr">
@@ -31195,7 +31195,7 @@
       </c>
       <c r="B1814" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1814" t="inlineStr">
@@ -31297,7 +31297,7 @@
       </c>
       <c r="B1820" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1820" t="inlineStr">
@@ -31314,7 +31314,7 @@
       </c>
       <c r="B1821" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1821" t="inlineStr">
@@ -31365,7 +31365,7 @@
       </c>
       <c r="B1824" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1824" t="inlineStr">
@@ -31416,7 +31416,7 @@
       </c>
       <c r="B1827" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1827" t="inlineStr">
@@ -31433,7 +31433,7 @@
       </c>
       <c r="B1828" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1828" t="inlineStr">
@@ -31535,7 +31535,7 @@
       </c>
       <c r="B1834" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1834" t="inlineStr">
@@ -31552,7 +31552,7 @@
       </c>
       <c r="B1835" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1835" t="inlineStr">
@@ -31654,7 +31654,7 @@
       </c>
       <c r="B1841" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1841" t="inlineStr">
@@ -31671,7 +31671,7 @@
       </c>
       <c r="B1842" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1842" t="inlineStr">
@@ -31773,7 +31773,7 @@
       </c>
       <c r="B1848" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1848" t="inlineStr">
@@ -31790,7 +31790,7 @@
       </c>
       <c r="B1849" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1849" t="inlineStr">
@@ -31875,7 +31875,7 @@
       </c>
       <c r="B1854" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1854" t="inlineStr">
@@ -31892,7 +31892,7 @@
       </c>
       <c r="B1855" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1855" t="inlineStr">
@@ -31909,7 +31909,7 @@
       </c>
       <c r="B1856" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1856" t="inlineStr">
@@ -32011,7 +32011,7 @@
       </c>
       <c r="B1862" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1862" t="inlineStr">
@@ -32028,7 +32028,7 @@
       </c>
       <c r="B1863" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1863" t="inlineStr">
@@ -32130,7 +32130,7 @@
       </c>
       <c r="B1869" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1869" t="inlineStr">
@@ -32147,7 +32147,7 @@
       </c>
       <c r="B1870" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1870" t="inlineStr">
@@ -32249,7 +32249,7 @@
       </c>
       <c r="B1876" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1876" t="inlineStr">
@@ -32266,7 +32266,7 @@
       </c>
       <c r="B1877" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1877" t="inlineStr">
@@ -32368,7 +32368,7 @@
       </c>
       <c r="B1883" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1883" t="inlineStr">
@@ -32385,7 +32385,7 @@
       </c>
       <c r="B1884" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1884" t="inlineStr">
@@ -32453,7 +32453,7 @@
       </c>
       <c r="B1888" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1888" t="inlineStr">
@@ -32470,7 +32470,7 @@
       </c>
       <c r="B1889" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1889" t="inlineStr">
@@ -32487,7 +32487,7 @@
       </c>
       <c r="B1890" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1890" t="inlineStr">
@@ -32504,7 +32504,7 @@
       </c>
       <c r="B1891" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1891" t="inlineStr">
@@ -32606,7 +32606,7 @@
       </c>
       <c r="B1897" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1897" t="inlineStr">
@@ -32623,7 +32623,7 @@
       </c>
       <c r="B1898" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1898" t="inlineStr">
@@ -32725,7 +32725,7 @@
       </c>
       <c r="B1904" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1904" t="inlineStr">
@@ -32742,7 +32742,7 @@
       </c>
       <c r="B1905" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1905" t="inlineStr">
@@ -32844,7 +32844,7 @@
       </c>
       <c r="B1911" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1911" t="inlineStr">
@@ -32861,7 +32861,7 @@
       </c>
       <c r="B1912" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1912" t="inlineStr">
@@ -32963,7 +32963,7 @@
       </c>
       <c r="B1918" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1918" t="inlineStr">
@@ -32980,7 +32980,7 @@
       </c>
       <c r="B1919" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1919" t="inlineStr">
@@ -33082,7 +33082,7 @@
       </c>
       <c r="B1925" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1925" t="inlineStr">
@@ -33099,7 +33099,7 @@
       </c>
       <c r="B1926" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1926" t="inlineStr">
@@ -33184,7 +33184,7 @@
       </c>
       <c r="B1931" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1931" t="inlineStr">
@@ -33201,7 +33201,7 @@
       </c>
       <c r="B1932" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1932" t="inlineStr">
@@ -33218,7 +33218,7 @@
       </c>
       <c r="B1933" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1933" t="inlineStr">
@@ -33320,7 +33320,7 @@
       </c>
       <c r="B1939" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1939" t="inlineStr">
@@ -33337,7 +33337,7 @@
       </c>
       <c r="B1940" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1940" t="inlineStr">
@@ -33439,7 +33439,7 @@
       </c>
       <c r="B1946" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1946" t="inlineStr">
@@ -33456,7 +33456,7 @@
       </c>
       <c r="B1947" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1947" t="inlineStr">
@@ -33558,7 +33558,7 @@
       </c>
       <c r="B1953" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1953" t="inlineStr">
@@ -33575,7 +33575,7 @@
       </c>
       <c r="B1954" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1954" t="inlineStr">
@@ -33677,7 +33677,7 @@
       </c>
       <c r="B1960" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1960" t="inlineStr">
@@ -33694,7 +33694,7 @@
       </c>
       <c r="B1961" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1961" t="inlineStr">
@@ -33796,7 +33796,7 @@
       </c>
       <c r="B1967" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1967" t="inlineStr">
@@ -33813,7 +33813,7 @@
       </c>
       <c r="B1968" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1968" t="inlineStr">
@@ -33830,7 +33830,7 @@
       </c>
       <c r="B1969" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1969" t="inlineStr">
@@ -33915,7 +33915,7 @@
       </c>
       <c r="B1974" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1974" t="inlineStr">
@@ -33932,7 +33932,7 @@
       </c>
       <c r="B1975" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1975" t="inlineStr">
@@ -34034,7 +34034,7 @@
       </c>
       <c r="B1981" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1981" t="inlineStr">
@@ -34051,7 +34051,7 @@
       </c>
       <c r="B1982" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1982" t="inlineStr">
@@ -34119,7 +34119,7 @@
       </c>
       <c r="B1986" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1986" t="inlineStr">
@@ -34153,7 +34153,7 @@
       </c>
       <c r="B1988" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1988" t="inlineStr">
@@ -34170,7 +34170,7 @@
       </c>
       <c r="B1989" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1989" t="inlineStr">
@@ -34221,7 +34221,7 @@
       </c>
       <c r="B1992" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1992" t="inlineStr">
@@ -34238,7 +34238,7 @@
       </c>
       <c r="B1993" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1993" t="inlineStr">
@@ -34272,7 +34272,7 @@
       </c>
       <c r="B1995" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1995" t="inlineStr">
@@ -34289,7 +34289,7 @@
       </c>
       <c r="B1996" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C1996" t="inlineStr">
@@ -34391,7 +34391,7 @@
       </c>
       <c r="B2002" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2002" t="inlineStr">
@@ -34408,7 +34408,7 @@
       </c>
       <c r="B2003" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2003" t="inlineStr">
@@ -34510,7 +34510,7 @@
       </c>
       <c r="B2009" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2009" t="inlineStr">
@@ -34527,7 +34527,7 @@
       </c>
       <c r="B2010" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2010" t="inlineStr">
@@ -34629,7 +34629,7 @@
       </c>
       <c r="B2016" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2016" t="inlineStr">
@@ -34646,7 +34646,7 @@
       </c>
       <c r="B2017" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2017" t="inlineStr">
@@ -34748,7 +34748,7 @@
       </c>
       <c r="B2023" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2023" t="inlineStr">
@@ -34765,7 +34765,7 @@
       </c>
       <c r="B2024" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2024" t="inlineStr">
@@ -34867,7 +34867,7 @@
       </c>
       <c r="B2030" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2030" t="inlineStr">
@@ -34884,7 +34884,7 @@
       </c>
       <c r="B2031" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2031" t="inlineStr">
@@ -34986,7 +34986,7 @@
       </c>
       <c r="B2037" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2037" t="inlineStr">
@@ -35003,7 +35003,7 @@
       </c>
       <c r="B2038" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2038" t="inlineStr">
@@ -35105,7 +35105,7 @@
       </c>
       <c r="B2044" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2044" t="inlineStr">
@@ -35122,7 +35122,7 @@
       </c>
       <c r="B2045" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2045" t="inlineStr">
@@ -35224,7 +35224,7 @@
       </c>
       <c r="B2051" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2051" t="inlineStr">
@@ -35241,7 +35241,7 @@
       </c>
       <c r="B2052" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2052" t="inlineStr">
@@ -35343,7 +35343,7 @@
       </c>
       <c r="B2058" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2058" t="inlineStr">
@@ -35360,7 +35360,7 @@
       </c>
       <c r="B2059" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2059" t="inlineStr">
@@ -35462,7 +35462,7 @@
       </c>
       <c r="B2065" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2065" t="inlineStr">
@@ -35479,7 +35479,7 @@
       </c>
       <c r="B2066" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2066" t="inlineStr">
@@ -35581,7 +35581,7 @@
       </c>
       <c r="B2072" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2072" t="inlineStr">
@@ -35598,7 +35598,7 @@
       </c>
       <c r="B2073" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2073" t="inlineStr">
@@ -35700,7 +35700,7 @@
       </c>
       <c r="B2079" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2079" t="inlineStr">
@@ -35717,7 +35717,7 @@
       </c>
       <c r="B2080" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2080" t="inlineStr">
@@ -35802,7 +35802,7 @@
       </c>
       <c r="B2085" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2085" t="inlineStr">
@@ -35819,7 +35819,7 @@
       </c>
       <c r="B2086" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2086" t="inlineStr">
@@ -35836,7 +35836,7 @@
       </c>
       <c r="B2087" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2087" t="inlineStr">
@@ -35938,7 +35938,7 @@
       </c>
       <c r="B2093" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2093" t="inlineStr">
@@ -35955,7 +35955,7 @@
       </c>
       <c r="B2094" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2094" t="inlineStr">
@@ -36057,7 +36057,7 @@
       </c>
       <c r="B2100" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2100" t="inlineStr">
@@ -36074,7 +36074,7 @@
       </c>
       <c r="B2101" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2101" t="inlineStr">
@@ -36176,7 +36176,7 @@
       </c>
       <c r="B2107" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2107" t="inlineStr">
@@ -36193,7 +36193,7 @@
       </c>
       <c r="B2108" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2108" t="inlineStr">
@@ -36278,7 +36278,7 @@
       </c>
       <c r="B2113" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2113" t="inlineStr">
@@ -36295,7 +36295,7 @@
       </c>
       <c r="B2114" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2114" t="inlineStr">
@@ -36312,7 +36312,7 @@
       </c>
       <c r="B2115" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2115" t="inlineStr">
@@ -36414,7 +36414,7 @@
       </c>
       <c r="B2121" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2121" t="inlineStr">
@@ -36431,7 +36431,7 @@
       </c>
       <c r="B2122" t="inlineStr">
         <is>
-          <t>NaN</t>
+          <t>NeuN</t>
         </is>
       </c>
       <c r="C2122" t="inlineStr">
